--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\SQL\sql2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14194018-FAF7-41A5-83E6-2BE898F8A8B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C6D26-6B23-4B92-A8BB-2A15CC1B3AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B5B18C94-C544-4388-97BF-5DD55A3A2C85}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Cím</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Besorolás</t>
   </si>
   <si>
-    <t>Nyelv</t>
-  </si>
-  <si>
     <t>Eredeti cím</t>
   </si>
   <si>
@@ -76,13 +73,115 @@
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Orlando Bloom, lan McKellen</t>
+  </si>
+  <si>
+    <t>Akció, Kaland, Dráma, Fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>178p</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Eredeti nyelv</t>
+  </si>
+  <si>
+    <t>3D-e?</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>A keresztapa</t>
+  </si>
+  <si>
+    <t>175p</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Marlon Brando, James Caan, Al Pacino</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma</t>
+  </si>
+  <si>
+    <t>Se 7en</t>
+  </si>
+  <si>
+    <t>Hetedik</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma, Relytéj</t>
+  </si>
+  <si>
+    <t>Darius Khondji</t>
+  </si>
+  <si>
+    <t>127p</t>
+  </si>
+  <si>
+    <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Jason Statham, Vinnie Jones</t>
+  </si>
+  <si>
+    <t>Vígjáték, Krimi</t>
+  </si>
+  <si>
+    <t>104p</t>
+  </si>
+  <si>
+    <t>Tim Maurice-Jones</t>
+  </si>
+  <si>
+    <t>John Murphy</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,11 +191,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,12 +227,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -439,79 +550,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFB4AC-E42C-4D31-8226-0FD82425654D}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>2001</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1972</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
